--- a/hourglass.xlsx
+++ b/hourglass.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yueyi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2B2E58-6A83-4181-BA36-B3DA37CC328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA57587-A721-4FAE-AAF9-768493550FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="number" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="18">
   <si>
     <t>kh1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,10 @@
   </si>
   <si>
     <t>-2*kh2-4*kh3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the row number in sheet1 starts from 2, but row 2 actually means the first box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -234,6 +242,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>439736</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31759FB3-69BD-4E20-8E4E-5635E110D64E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="481012" y="325730"/>
+          <a:ext cx="5788024" cy="3427119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2177,4 +2234,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E113131D-D5AA-4AAC-AE19-2F033EC203A8}">
+  <dimension ref="A25:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>